--- a/updated_script/Graphtext_022820.xlsx
+++ b/updated_script/Graphtext_022820.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9906FAF-5F9B-0F4C-A969-DB4CAF2067D6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5960E4-05AE-034B-8201-F76D0F097C0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="880" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="641">
   <si>
     <t>section</t>
   </si>
@@ -1988,6 +1988,12 @@
   </si>
   <si>
     <t>Copyedit title/notes/source!!!</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>connectNull,wideSmallMultiple</t>
   </si>
 </sst>
 </file>
@@ -2505,9 +2511,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE52" sqref="AE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4961,7 +4967,7 @@
         <v>620</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I30" s="30" t="s">
         <v>44</v>
@@ -5049,7 +5055,7 @@
         <v>620</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I31" s="30" t="s">
         <v>44</v>
@@ -5140,7 +5146,7 @@
         <v>620</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I32" s="30" t="s">
         <v>44</v>
@@ -5231,7 +5237,7 @@
         <v>620</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I33" s="30" t="s">
         <v>44</v>
@@ -5319,7 +5325,7 @@
         <v>620</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>635</v>
+        <v>87</v>
       </c>
       <c r="I34" s="30" t="s">
         <v>44</v>
@@ -5410,7 +5416,7 @@
         <v>620</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I35" s="30" t="s">
         <v>44</v>
@@ -5424,7 +5430,7 @@
       </c>
       <c r="M35" s="30"/>
       <c r="N35" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="30">
         <v>0</v>
@@ -5491,7 +5497,7 @@
         <v>620</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="I36" s="28" t="s">
         <v>44</v>
@@ -5505,7 +5511,7 @@
       </c>
       <c r="M36" s="28"/>
       <c r="N36" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="28">
         <v>0</v>
@@ -6869,7 +6875,9 @@
       <c r="AB52" s="28"/>
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
-      <c r="AE52" s="28"/>
+      <c r="AE52" s="38" t="s">
+        <v>640</v>
+      </c>
       <c r="AF52" s="28"/>
       <c r="AG52" s="28"/>
       <c r="AH52" s="28"/>

--- a/updated_script/Graphtext_022820.xlsx
+++ b/updated_script/Graphtext_022820.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5960E4-05AE-034B-8201-F76D0F097C0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8B9FD3-8D18-C443-9C7A-EBB5C7BD52B5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="880" windowWidth="25600" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="644">
   <si>
     <t>section</t>
   </si>
@@ -1993,7 +1993,16 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>connectNull,wideSmallMultiple</t>
+    <t>connectNull</t>
+  </si>
+  <si>
+    <t>Why does the title have 2014 when current live is 2015?</t>
+  </si>
+  <si>
+    <t>Why does the title have 2013 when current live is 2015?</t>
+  </si>
+  <si>
+    <t>Age groups</t>
   </si>
 </sst>
 </file>
@@ -2511,9 +2520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE52" sqref="AE52"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6832,8 +6841,12 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="F52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>641</v>
+      </c>
       <c r="H52" s="1" t="s">
         <v>634</v>
       </c>
@@ -6912,8 +6925,12 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="F53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>642</v>
+      </c>
       <c r="H53" s="1" t="s">
         <v>634</v>
       </c>
@@ -6964,8 +6981,7 @@
       <c r="AK53" s="28"/>
       <c r="AL53" s="28"/>
       <c r="AM53" s="28"/>
-      <c r="AN53" s="28"/>
-      <c r="AO53" s="28">
+      <c r="AN53" s="28">
         <v>320</v>
       </c>
       <c r="AP53" s="28"/>
@@ -7021,9 +7037,11 @@
       <c r="R54" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="S54" s="28"/>
+      <c r="S54" s="38"/>
       <c r="T54" s="28"/>
-      <c r="U54" s="28"/>
+      <c r="U54" s="38" t="s">
+        <v>643</v>
+      </c>
       <c r="V54" s="28"/>
       <c r="W54" s="28"/>
       <c r="X54" s="28"/>
@@ -7041,7 +7059,9 @@
       <c r="AJ54" s="28"/>
       <c r="AK54" s="28"/>
       <c r="AL54" s="28"/>
-      <c r="AM54" s="28"/>
+      <c r="AM54" s="28">
+        <v>30</v>
+      </c>
       <c r="AN54" s="28"/>
       <c r="AO54" s="28"/>
       <c r="AP54" s="28"/>
@@ -7075,9 +7095,11 @@
         <v>50</v>
       </c>
       <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="20" t="s">
+      <c r="K55" s="20" t="s">
         <v>196</v>
+      </c>
+      <c r="L55" s="28" t="s">
+        <v>198</v>
       </c>
       <c r="M55" s="28"/>
       <c r="N55" s="30">
@@ -7090,26 +7112,33 @@
         <v>197</v>
       </c>
       <c r="Q55" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S55" s="28" t="s">
-        <v>198</v>
       </c>
       <c r="T55" s="28"/>
       <c r="U55" s="28"/>
       <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
+      <c r="W55" s="28">
+        <v>150000</v>
+      </c>
       <c r="X55" s="28"/>
       <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
+      <c r="Z55" s="28">
+        <v>4</v>
+      </c>
       <c r="AA55" s="28"/>
       <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
+      <c r="AC55" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF55" s="28"/>
       <c r="AG55" s="28"/>
       <c r="AH55" s="28"/>
@@ -7151,9 +7180,11 @@
         <v>50</v>
       </c>
       <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="20" t="s">
+      <c r="K56" s="20" t="s">
         <v>196</v>
+      </c>
+      <c r="L56" s="28" t="s">
+        <v>200</v>
       </c>
       <c r="M56" s="28"/>
       <c r="N56" s="30">
@@ -7166,26 +7197,33 @@
         <v>199</v>
       </c>
       <c r="Q56" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S56" s="28" t="s">
-        <v>200</v>
       </c>
       <c r="T56" s="28"/>
       <c r="U56" s="28"/>
       <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
+      <c r="W56" s="28">
+        <v>150000</v>
+      </c>
       <c r="X56" s="28"/>
       <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
+      <c r="Z56" s="28">
+        <v>4</v>
+      </c>
       <c r="AA56" s="28"/>
       <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
+      <c r="AC56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF56" s="28"/>
       <c r="AG56" s="28"/>
       <c r="AH56" s="28"/>
@@ -7227,9 +7265,11 @@
         <v>50</v>
       </c>
       <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="20" t="s">
+      <c r="K57" s="20" t="s">
         <v>196</v>
+      </c>
+      <c r="L57" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="M57" s="28"/>
       <c r="N57" s="30">
@@ -7242,26 +7282,33 @@
         <v>201</v>
       </c>
       <c r="Q57" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S57" s="28" t="s">
-        <v>202</v>
       </c>
       <c r="T57" s="28"/>
       <c r="U57" s="28"/>
       <c r="V57" s="28"/>
-      <c r="W57" s="28"/>
+      <c r="W57" s="28">
+        <v>90000</v>
+      </c>
       <c r="X57" s="28"/>
       <c r="Y57" s="28"/>
-      <c r="Z57" s="28"/>
+      <c r="Z57" s="28">
+        <v>4</v>
+      </c>
       <c r="AA57" s="28"/>
       <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
+      <c r="AC57" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF57" s="28"/>
       <c r="AG57" s="28"/>
       <c r="AH57" s="28"/>
@@ -7303,9 +7350,11 @@
         <v>50</v>
       </c>
       <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="20" t="s">
+      <c r="K58" s="20" t="s">
         <v>196</v>
+      </c>
+      <c r="L58" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="M58" s="28"/>
       <c r="N58" s="30">
@@ -7318,26 +7367,33 @@
         <v>203</v>
       </c>
       <c r="Q58" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S58" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="T58" s="28"/>
       <c r="U58" s="28"/>
       <c r="V58" s="28"/>
-      <c r="W58" s="28"/>
+      <c r="W58" s="28">
+        <v>90000</v>
+      </c>
       <c r="X58" s="28"/>
       <c r="Y58" s="28"/>
-      <c r="Z58" s="28"/>
+      <c r="Z58" s="28">
+        <v>4</v>
+      </c>
       <c r="AA58" s="28"/>
       <c r="AB58" s="28"/>
-      <c r="AC58" s="28"/>
-      <c r="AD58" s="28"/>
-      <c r="AE58" s="28"/>
+      <c r="AC58" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF58" s="28"/>
       <c r="AG58" s="28"/>
       <c r="AH58" s="28"/>
@@ -7379,9 +7435,11 @@
         <v>50</v>
       </c>
       <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="20" t="s">
+      <c r="K59" s="20" t="s">
         <v>196</v>
+      </c>
+      <c r="L59" s="28" t="s">
+        <v>202</v>
       </c>
       <c r="M59" s="28"/>
       <c r="N59" s="30">
@@ -7394,26 +7452,33 @@
         <v>205</v>
       </c>
       <c r="Q59" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S59" s="28" t="s">
-        <v>202</v>
       </c>
       <c r="T59" s="28"/>
       <c r="U59" s="28"/>
       <c r="V59" s="28"/>
-      <c r="W59" s="28"/>
+      <c r="W59" s="28">
+        <v>180000</v>
+      </c>
       <c r="X59" s="28"/>
       <c r="Y59" s="28"/>
-      <c r="Z59" s="28"/>
+      <c r="Z59" s="28">
+        <v>4</v>
+      </c>
       <c r="AA59" s="28"/>
       <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
-      <c r="AD59" s="28"/>
-      <c r="AE59" s="28"/>
+      <c r="AC59" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF59" s="28"/>
       <c r="AG59" s="28"/>
       <c r="AH59" s="28"/>
@@ -7455,9 +7520,11 @@
         <v>50</v>
       </c>
       <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="20" t="s">
+      <c r="K60" s="20" t="s">
         <v>206</v>
+      </c>
+      <c r="L60" s="28" t="s">
+        <v>204</v>
       </c>
       <c r="M60" s="28"/>
       <c r="N60" s="30">
@@ -7470,26 +7537,33 @@
         <v>207</v>
       </c>
       <c r="Q60" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R60" s="28" t="s">
         <v>60</v>
-      </c>
-      <c r="S60" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="T60" s="28"/>
       <c r="U60" s="28"/>
       <c r="V60" s="28"/>
-      <c r="W60" s="28"/>
+      <c r="W60" s="28">
+        <v>180000</v>
+      </c>
       <c r="X60" s="28"/>
       <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
+      <c r="Z60" s="28">
+        <v>4</v>
+      </c>
       <c r="AA60" s="28"/>
       <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
+      <c r="AC60" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="28" t="s">
+        <v>105</v>
+      </c>
       <c r="AF60" s="28"/>
       <c r="AG60" s="28"/>
       <c r="AH60" s="28"/>
